--- a/stc-util/Geradores de Incoming/MASTERCARD/ChargeBackCreditoVistaMastercard.xlsx
+++ b/stc-util/Geradores de Incoming/MASTERCARD/ChargeBackCreditoVistaMastercard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t0404mnl\Documents\Manuel\Projetos\STC\Geradores de Incoming\MASTERCARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t0404mnl\git\mhj-util\stc-util\Geradores de Incoming\MASTERCARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4069,9 +4069,6 @@
     <t>190209</t>
   </si>
   <si>
-    <t>010</t>
-  </si>
-  <si>
     <t>SELECT NVL(MAX(NU_SEQUENCIAL) + 1, 0) from TBSTCR_PROC_INCOMING WHERE Trim(CD_TIPO_ARQUIVO) = Trim('1')</t>
   </si>
   <si>
@@ -4081,37 +4078,40 @@
     <t>SELECT tp.CD_TIPO_PRODUTO, tp.DC_TIPO_PRODUTO, b.NM_BANDEIRA, b.CD_BANDEIRA FROM INTC.TBSTCR_TIPO_PRODUTO tp, INTC.TBSTCR_BANDEIRA b where tp.ID_BANDEIRA = b.ID_BANDEIRA and b.NM_BANDEIRA = 'MASTERCARD' order by tp.CD_TIPO_PRODUTO;</t>
   </si>
   <si>
-    <t>20190401</t>
-  </si>
-  <si>
-    <t>2019-04-01</t>
-  </si>
-  <si>
-    <t>0000004</t>
-  </si>
-  <si>
     <t>000000004000</t>
   </si>
   <si>
-    <t>00201000000000000000004</t>
-  </si>
-  <si>
-    <t>000004</t>
-  </si>
-  <si>
-    <t>000000004</t>
-  </si>
-  <si>
-    <t>00040000000000400000040004000</t>
-  </si>
-  <si>
-    <t>000000000040004</t>
-  </si>
-  <si>
     <t>000000000004000</t>
   </si>
   <si>
     <t>0000000004000</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>20190501</t>
+  </si>
+  <si>
+    <t>2019-05-01</t>
+  </si>
+  <si>
+    <t>0000007</t>
+  </si>
+  <si>
+    <t>000000007</t>
+  </si>
+  <si>
+    <t>00070000000000700000070007000</t>
+  </si>
+  <si>
+    <t>000000000070007</t>
+  </si>
+  <si>
+    <t>000007</t>
+  </si>
+  <si>
+    <t>00201100000000000000007</t>
   </si>
 </sst>
 </file>
@@ -5856,8 +5856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="D232" sqref="D232:D236"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="D236" sqref="D232:D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6045,7 +6045,7 @@
       </c>
       <c r="B14" s="23" t="str">
         <f>B239</f>
-        <v>20190401</v>
+        <v>20190501</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="B15" s="24" t="str">
         <f>B246</f>
-        <v>0000004</v>
+        <v>0000007</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="B16" s="23" t="str">
         <f>B239</f>
-        <v>20190401</v>
+        <v>20190501</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="B20" s="29" t="str">
         <f>B12&amp;B13&amp;B14&amp;B15&amp;B16&amp;B17&amp;B18&amp;B19</f>
-        <v xml:space="preserve">001-CHARGEBACK CRED VISTA MASTER20190401000000420190401080000002                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </v>
+        <v xml:space="preserve">001-CHARGEBACK CRED VISTA MASTER20190501000000720190501080000002                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B30" s="23" t="str">
         <f>B239</f>
-        <v>20190401</v>
+        <v>20190501</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="2"/>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="B32" s="24" t="str">
         <f>B241</f>
-        <v>00201000000000000000004</v>
+        <v>00201100000000000000007</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="2"/>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B66" s="29" t="str">
         <f>CONCATENATE(B22,B23,B24,B25,B26,B27,B28,B29,B30,B31,B32,B33,B34,B35,B36,B37,B38,B39,B40,B41,B42,B43,B44,B45,B46,B47,B48,B49,B50,B51,B52,B53,B54,B55,B56,B57,B58,B59,B60,B61,B62,B63,B64,B65)</f>
-        <v xml:space="preserve">0100211100098619020900000000400020190401TE15 CHBK VENDA                                                                                     0020100000000000000000454485913004079720  00000002000                     000000                                                                                                    0000000000                                                                                                                            00000000000000N000                            2004025454MASSA DADOS AFIL. - 001-121823  00008OAberto      98605599AUTOMOVEIS          SAO PAULO    BR 000000000000000000 000000000000000                                                                                                                                                                  </v>
+        <v xml:space="preserve">0100211100098619020900000000400020190501TE15 CHBK VENDA                                                                                     0020110000000000000000754485913004079720  00000002000                     000000                                                                                                    0000000000                                                                                                                            00000000000000N000                            2004025454MASSA DADOS AFIL. - 001-121823  00008OAberto      98605599AUTOMOVEIS          SAO PAULO    BR 000000000000000000 000000000000000                                                                                                                                                                  </v>
       </c>
       <c r="C66" s="1">
         <f t="shared" si="2"/>
@@ -7790,7 +7790,7 @@
       </c>
       <c r="B71" s="59" t="str">
         <f>B242</f>
-        <v>2019-04-01</v>
+        <v>2019-05-01</v>
       </c>
       <c r="C71" s="1">
         <f t="shared" si="4"/>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="B72" s="59" t="str">
         <f>B242</f>
-        <v>2019-04-01</v>
+        <v>2019-05-01</v>
       </c>
       <c r="C72" s="1">
         <f t="shared" si="4"/>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="B78" s="62" t="str">
         <f>B243</f>
-        <v>000004</v>
+        <v>000007</v>
       </c>
       <c r="C78" s="1">
         <f t="shared" si="4"/>
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B79" s="59" t="str">
         <f>B242</f>
-        <v>2019-04-01</v>
+        <v>2019-05-01</v>
       </c>
       <c r="C79" s="1">
         <f t="shared" si="4"/>
@@ -8077,7 +8077,7 @@
       </c>
       <c r="B80" s="62" t="str">
         <f>B247</f>
-        <v>000000004</v>
+        <v>000000007</v>
       </c>
       <c r="C80" s="1">
         <f t="shared" si="4"/>
@@ -8298,7 +8298,7 @@
       </c>
       <c r="B87" s="24" t="str">
         <f>B241</f>
-        <v>00201000000000000000004</v>
+        <v>00201100000000000000007</v>
       </c>
       <c r="C87" s="1">
         <f t="shared" si="4"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B104" s="65" t="str">
         <f t="shared" ref="B104:B105" si="6">B248</f>
-        <v>010</v>
+        <v>011</v>
       </c>
       <c r="C104" s="1">
         <f t="shared" si="4"/>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="B105" s="62" t="str">
         <f t="shared" si="6"/>
-        <v>00040000000000400000040004000</v>
+        <v>00070000000000700000070007000</v>
       </c>
       <c r="C105" s="1">
         <f t="shared" si="4"/>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="B125" s="29" t="str">
         <f>CONCATENATE(B69,B70,B71,B72,B73,B74,B75,B76,B77,B78,B79,B80,B81,B82,B83,B84,B85,B86,B87,B88,B89,B90,B91,B92,B93,B94,B95,B96,B97,B98,B99,B100,B101,B102,B103,B104,B105,B106,B107,B108,B109,B110,B111,B112,B113,B114,B115,B116,B117,B118,B119,B120,B121,B122,B123,B124)</f>
-        <v xml:space="preserve">020022019-04-012019-04-01000000000004000+295054540251802190000042019-04-01000000004                                        CREDITO   00000000000000000000000000000054485913004079720  00201000000000000000004 01040049036040104B   1MAQUINA                                         5 NAO SE APLICA                                   520PLBOBPOSC40 32POS V.32                                        01000040000000000400000040004000D10101B9900CN000000000000000 17000000000000000 000000000000 000000000000000000000000000000000000000000100010          0000000000000001123                                                                                                                                                                                                                                                </v>
+        <v xml:space="preserve">020022019-05-012019-05-01000000000004000+295054540251802190000072019-05-01000000007                                        CREDITO   00000000000000000000000000000054485913004079720  00201100000000000000007 01040049036040104B   1MAQUINA                                         5 NAO SE APLICA                                   520PLBOBPOSC40 32POS V.32                                        01100070000000000700000070007000D10101B9900CN000000000000000 17000000000000000 000000000000 000000000000000000000000000000000000000000100010          0000000000000001123                                                                                                                                                                                                                                                </v>
       </c>
       <c r="C125" s="1">
         <f t="shared" si="4"/>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="B129" s="62" t="str">
         <f>B243</f>
-        <v>000004</v>
+        <v>000007</v>
       </c>
       <c r="C129" s="1">
         <f t="shared" si="7"/>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="B130" s="59" t="str">
         <f>B239</f>
-        <v>20190401</v>
+        <v>20190501</v>
       </c>
       <c r="C130" s="1">
         <f t="shared" si="7"/>
@@ -10105,7 +10105,7 @@
       </c>
       <c r="B145" s="29" t="str">
         <f>CONCATENATE(B128,B129,B130,B131,B132,B133,B134,B135,B136,B137,B138,B139,B140,B141,B142,B143,B144)</f>
-        <v xml:space="preserve">03000004201904010329520000000004000Aprovada       Leitura magnetica - Tri                       REDE                   Aprovada          N2020                MC                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </v>
+        <v xml:space="preserve">03000007201905010329520000000004000Aprovada       Leitura magnetica - Tri                       REDE                   Aprovada          N2020                MC                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </v>
       </c>
       <c r="C145" s="1">
         <f t="shared" si="7"/>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="D232" t="str">
         <f>CONCATENATE(B20)</f>
-        <v xml:space="preserve">001-CHARGEBACK CRED VISTA MASTER20190401000000420190401080000002                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </v>
+        <v xml:space="preserve">001-CHARGEBACK CRED VISTA MASTER20190501000000720190501080000002                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </v>
       </c>
     </row>
     <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="D233" t="str">
         <f>CONCATENATE(B66)</f>
-        <v xml:space="preserve">0100211100098619020900000000400020190401TE15 CHBK VENDA                                                                                     0020100000000000000000454485913004079720  00000002000                     000000                                                                                                    0000000000                                                                                                                            00000000000000N000                            2004025454MASSA DADOS AFIL. - 001-121823  00008OAberto      98605599AUTOMOVEIS          SAO PAULO    BR 000000000000000000 000000000000000                                                                                                                                                                  </v>
+        <v xml:space="preserve">0100211100098619020900000000400020190501TE15 CHBK VENDA                                                                                     0020110000000000000000754485913004079720  00000002000                     000000                                                                                                    0000000000                                                                                                                            00000000000000N000                            2004025454MASSA DADOS AFIL. - 001-121823  00008OAberto      98605599AUTOMOVEIS          SAO PAULO    BR 000000000000000000 000000000000000                                                                                                                                                                  </v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12370,7 +12370,7 @@
       </c>
       <c r="D234" t="str">
         <f>CONCATENATE(B125)</f>
-        <v xml:space="preserve">020022019-04-012019-04-01000000000004000+295054540251802190000042019-04-01000000004                                        CREDITO   00000000000000000000000000000054485913004079720  00201000000000000000004 01040049036040104B   1MAQUINA                                         5 NAO SE APLICA                                   520PLBOBPOSC40 32POS V.32                                        01000040000000000400000040004000D10101B9900CN000000000000000 17000000000000000 000000000000 000000000000000000000000000000000000000000100010          0000000000000001123                                                                                                                                                                                                                                                </v>
+        <v xml:space="preserve">020022019-05-012019-05-01000000000004000+295054540251802190000072019-05-01000000007                                        CREDITO   00000000000000000000000000000054485913004079720  00201100000000000000007 01040049036040104B   1MAQUINA                                         5 NAO SE APLICA                                   520PLBOBPOSC40 32POS V.32                                        01100070000000000700000070007000D10101B9900CN000000000000000 17000000000000000 000000000000 000000000000000000000000000000000000000000100010          0000000000000001123                                                                                                                                                                                                                                                </v>
       </c>
     </row>
     <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12387,7 +12387,7 @@
       </c>
       <c r="D235" t="str">
         <f>CONCATENATE(B145)</f>
-        <v xml:space="preserve">03000004201904010329520000000004000Aprovada       Leitura magnetica - Tri                       REDE                   Aprovada          N2020                MC                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </v>
+        <v xml:space="preserve">03000007201905010329520000000004000Aprovada       Leitura magnetica - Tri                       REDE                   Aprovada          N2020                MC                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                </v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12421,7 +12421,7 @@
         <v>728</v>
       </c>
       <c r="B239" s="23" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C239" s="1">
         <f t="shared" ref="C239:C244" si="21">LEN(B239)</f>
@@ -12441,7 +12441,7 @@
         <v>729</v>
       </c>
       <c r="B240" s="131" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C240" s="1">
         <f t="shared" si="21"/>
@@ -12462,7 +12462,7 @@
         <v>730</v>
       </c>
       <c r="B241" s="130" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="C241" s="1">
         <f t="shared" si="21"/>
@@ -12483,7 +12483,7 @@
         <v>731</v>
       </c>
       <c r="B242" s="59" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="C242" s="1">
         <f t="shared" si="21"/>
@@ -12503,7 +12503,7 @@
         <v>460</v>
       </c>
       <c r="B243" s="129" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C243" s="1">
         <f t="shared" si="21"/>
@@ -12548,7 +12548,7 @@
         <v>733</v>
       </c>
       <c r="B246" s="130" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C246" s="1">
         <f t="shared" ref="C246:C252" si="23">LEN(B246)</f>
@@ -12592,7 +12592,7 @@
         <v>734</v>
       </c>
       <c r="B248" s="65" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="C248" s="1">
         <f t="shared" si="23"/>
@@ -12654,7 +12654,7 @@
     </row>
     <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="128" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="C251" s="1">
         <f t="shared" si="23"/>
@@ -12673,7 +12673,7 @@
     </row>
     <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="128" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="C252" s="1">
         <f t="shared" si="23"/>
@@ -13500,10 +13500,10 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2" s="127" t="s">
         <v>743</v>
-      </c>
-      <c r="C2" s="127" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -13511,7 +13511,7 @@
         <v>735</v>
       </c>
       <c r="B3" s="127" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
